--- a/novel_sentence.xlsx
+++ b/novel_sentence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/Documents/RA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\课件\HSUHK RA\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ECDADD-15EC-C043-88D8-FD9824654EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB12DB7-709D-4CCE-8722-AB835E813FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18740" yWindow="700" windowWidth="17880" windowHeight="19100" xr2:uid="{2094ED5C-6790-0C46-B56A-E0F9759D3B47}"/>
+    <workbookView minimized="1" xWindow="-3686" yWindow="891" windowWidth="16457" windowHeight="9549" xr2:uid="{2094ED5C-6790-0C46-B56A-E0F9759D3B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,105 +34,110 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
+    <t>I would have been fine with a longer space bar.</t>
+  </si>
+  <si>
+    <t>I wanted a powerhouse that was light and fast.</t>
+  </si>
+  <si>
+    <t>Wish it had one more thunderbolt port instead of that mini display port</t>
+  </si>
+  <si>
+    <t>I needed something small for work and travel, but strong enough to do light gaming, preferably heavy gaming.</t>
+  </si>
+  <si>
+    <t>It could've been really nice if it had double slots for the storage.</t>
+  </si>
+  <si>
+    <t>it would've been great if it came with the Ethernet USB dongle and the USB type C charger</t>
+  </si>
+  <si>
+    <t>It would have been ergonomically nice to have had the flexibility to plug in either the Left or Right side for charging.</t>
+  </si>
+  <si>
+    <t>If AORUS offers two AC adapters to end user will be fantastic!!</t>
+  </si>
+  <si>
+    <t>It would be better if the screen is foldable, flexible or even expandable so I can enjoy both the big sceen and small weight at the mean time.</t>
+  </si>
+  <si>
+    <t>I still think an even powerful laptop is needed, such as laptops with eight cores and more powerful NVIDIA RTX graphic card.</t>
+  </si>
+  <si>
+    <t>The weight should be under 1.8kg so I can carry it convineintly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the smallest laptop I can find, but I still want it to be smaller. </t>
+  </si>
+  <si>
+    <t>If a laptop has mechanical keyboard, I would definitely buy it.</t>
+  </si>
+  <si>
+    <t>If it is foldable and can be put in my pocket, that would be even better but the functions and performance cannot be sacrificed.</t>
+  </si>
+  <si>
+    <t>Maybe a laptop with multiple foldable screens which can be combined to form a bigger one will be the solution.</t>
+  </si>
+  <si>
+    <t>I would like to see some real Mini LED laptop so I hv better HDR and zone lighting from its far brighter-than-usual screen.</t>
+  </si>
+  <si>
+    <t>I would like super-speedy 300Hz or higher refresh rate screens and massive batteries.</t>
+  </si>
+  <si>
+    <t>I want the laptop with good speaker and professional sound card so I can enjoy the music whenever I carry the laptop.</t>
+  </si>
+  <si>
+    <t>It would be fantastic if the laptop has a projector.</t>
+  </si>
+  <si>
+    <t>It would be fantastic if the laptop is foldable, such as foldable screen and foldable keyborad so I can fold it into a small pack and put it to my pocket.</t>
+  </si>
+  <si>
+    <t>Can we consider developing a laptop with water cooling system?</t>
+  </si>
+  <si>
+    <t>It's perfect to turn its components into modular and detachable.</t>
+  </si>
+  <si>
+    <t>It would be better if it could have cool lighting effect like a desktop.</t>
+  </si>
+  <si>
+    <t>Is there a laptop that can connect more devices?</t>
+  </si>
+  <si>
+    <t>If the sound quality can reach the standard of professional player, it may be more suitable for my music industry users</t>
+  </si>
+  <si>
     <t>I wish on the PSU there would have been a USB port.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>I do wish that there was a windows hello enabled camera or a fingerprint reader.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Wish it had another thunderbolt 3 port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>I wanted a new machine that was lighter, had better battery life and was just as powerful for my gaming needs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Wish it had more memory and a card reader</t>
-  </si>
-  <si>
-    <t>I would have been fine with a longer space bar.</t>
-  </si>
-  <si>
-    <t>I wanted a powerhouse that was light and fast.</t>
-  </si>
-  <si>
-    <t>Wish it had one more thunderbolt port instead of that mini display port</t>
-  </si>
-  <si>
-    <t>I needed something small for work and travel, but strong enough to do light gaming, preferably heavy gaming.</t>
-  </si>
-  <si>
-    <t>It could've been really nice if it had double slots for the storage.</t>
-  </si>
-  <si>
-    <t>it would've been great if it came with the Ethernet USB dongle and the USB type C charger</t>
-  </si>
-  <si>
-    <t>It would have been ergonomically nice to have had the flexibility to plug in either the Left or Right side for charging.</t>
-  </si>
-  <si>
-    <t>If AORUS offers two AC adapters to end user will be fantastic!!</t>
-  </si>
-  <si>
-    <t>It would be better if the screen is foldable, flexible or even expandable so I can enjoy both the big sceen and small weight at the mean time.</t>
-  </si>
-  <si>
-    <t>I still think an even powerful laptop is needed, such as laptops with eight cores and more powerful NVIDIA RTX graphic card.</t>
-  </si>
-  <si>
-    <t>The weight should be under 1.8kg so I can carry it convineintly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the smallest laptop I can find, but I still want it to be smaller. </t>
-  </si>
-  <si>
-    <t>If a laptop has mechanical keyboard, I would definitely buy it.</t>
-  </si>
-  <si>
-    <t>If it is foldable and can be put in my pocket, that would be even better but the functions and performance cannot be sacrificed.</t>
-  </si>
-  <si>
-    <t>Maybe a laptop with multiple foldable screens which can be combined to form a bigger one will be the solution.</t>
-  </si>
-  <si>
-    <t>I would like to see some real Mini LED laptop so I hv better HDR and zone lighting from its far brighter-than-usual screen.</t>
-  </si>
-  <si>
-    <t>I would like super-speedy 300Hz or higher refresh rate screens and massive batteries.</t>
-  </si>
-  <si>
-    <t>I want the laptop with good speaker and professional sound card so I can enjoy the music whenever I carry the laptop.</t>
-  </si>
-  <si>
-    <t>It would be fantastic if the laptop has a projector.</t>
-  </si>
-  <si>
-    <t>It would be fantastic if the laptop is foldable, such as foldable screen and foldable keyborad so I can fold it into a small pack and put it to my pocket.</t>
-  </si>
-  <si>
-    <t>Can we consider developing a laptop with water cooling system?</t>
-  </si>
-  <si>
-    <t>It's perfect to turn its components into modular and detachable.</t>
-  </si>
-  <si>
-    <t>It would be better if it could have cool lighting effect like a desktop.</t>
-  </si>
-  <si>
-    <t>Is there a laptop that can connect more devices?</t>
-  </si>
-  <si>
-    <t>If the sound quality can reach the standard of professional player, it may be more suitable for my music industry users</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,6 +149,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,14 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -505,165 +522,167 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="123.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/novel_sentence.xlsx
+++ b/novel_sentence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\课件\HSUHK RA\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB12DB7-709D-4CCE-8722-AB835E813FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B4646-A29E-4A19-B9D1-E93D5787D503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-3686" yWindow="891" windowWidth="16457" windowHeight="9549" xr2:uid="{2094ED5C-6790-0C46-B56A-E0F9759D3B47}"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="16458" windowHeight="9549" xr2:uid="{2094ED5C-6790-0C46-B56A-E0F9759D3B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>I would have been fine with a longer space bar.</t>
   </si>
@@ -126,6 +119,10 @@
   </si>
   <si>
     <t>Wish it had more memory and a card reader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -145,10 +142,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -519,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6697C36-D247-DE4E-9635-E653A91D407D}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -531,152 +530,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
+      <c r="A1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
